--- a/Resultados/Mercado mundial - Arándanos trepadores.xlsx
+++ b/Resultados/Mercado mundial - Arándanos trepadores.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="United States of America" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Canada" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Azerbaijan" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ukraine" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Canadá" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Azerbaiyán" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ucrania" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Canada'!$B$12:$B$73</f>
+              <f>'Canadá'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Canada'!$C$12:$C$73</f>
+              <f>'Canadá'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Azerbaijan'!$B$12:$B$73</f>
+              <f>'Azerbaiyán'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Azerbaijan'!$C$12:$C$73</f>
+              <f>'Azerbaiyán'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ukraine'!$B$12:$B$73</f>
+              <f>'Ucrania'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ukraine'!$C$12:$C$73</f>
+              <f>'Ucrania'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>22612</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>535221.24</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>23.67</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>284919.52</v>
@@ -2160,10 +2160,10 @@
         <v>23149</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>25.5922</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>592429.52</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>25.5922</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>326017.36</v>
@@ -2182,10 +2182,10 @@
         <v>22985</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>21.0452</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>483729.59</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>21.0452</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>282526.43</v>
@@ -2204,10 +2204,10 @@
         <v>24222</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.0256</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>533514.29</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.0256</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>236760.37</v>
@@ -2226,10 +2226,10 @@
         <v>23314</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.7415</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>530196.63</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.7415</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>181661.38</v>
@@ -2248,10 +2248,10 @@
         <v>23558</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>25.3682</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>597630.4399999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>25.3682</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>181374.25</v>
@@ -2270,10 +2270,10 @@
         <v>24597</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21.7168</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>534157.73</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21.7168</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>142958.08</v>
@@ -2292,10 +2292,10 @@
         <v>25364</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>24.9809</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>633616.88</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>24.9809</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>132546.78</v>
@@ -2314,10 +2314,10 @@
         <v>24953</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>22.0406</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>549989.22</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>22.0406</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>124841.36</v>
@@ -2336,10 +2336,10 @@
         <v>24094</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>23.1072</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>556748.42</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>23.1072</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>108861.55</v>
@@ -2358,10 +2358,10 @@
         <v>25698</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>21.2578</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>546291.62</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>21.2578</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>135197</v>
@@ -2380,10 +2380,10 @@
         <v>25016</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.635</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>516211.33</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.635</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>122117</v>
@@ -2402,10 +2402,10 @@
         <v>23612</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>19.5967</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>462723.77</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>19.5967</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>96994</v>
@@ -2424,10 +2424,10 @@
         <v>23640</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>17.3394</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>409906.42</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>17.3394</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>82185</v>
@@ -2446,10 +2446,10 @@
         <v>23552</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>18.1205</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>426773.78</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>18.1205</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>78387</v>
@@ -2468,10 +2468,10 @@
         <v>22514</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>20.0438</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>451272.47</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>20.0438</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>72403</v>
@@ -2490,10 +2490,10 @@
         <v>22423</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>17.3265</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>388508.23</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>17.3265</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>64368</v>
@@ -2512,10 +2512,10 @@
         <v>22637</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>18.071</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>409074.03</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>18.071</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>60135</v>
@@ -2534,10 +2534,10 @@
         <v>21248</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17.1802</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>365045.56</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17.1802</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>49059</v>
@@ -2556,10 +2556,10 @@
         <v>21780</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>16.8219</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>366381.9</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>16.8219</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>52315</v>
@@ -2578,10 +2578,10 @@
         <v>21737</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>16.7948</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>365068.47</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>16.7948</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>50294</v>
@@ -2600,10 +2600,10 @@
         <v>22090</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>14.8953</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>329043.23</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>14.8953</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>46238</v>
@@ -2622,10 +2622,10 @@
         <v>21399</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14.0247</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>300107.96</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14.0247</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>35229</v>
@@ -2644,10 +2644,10 @@
         <v>21021</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>15.149</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>318443.79</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>15.149</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>31973.37</v>
@@ -2666,10 +2666,10 @@
         <v>21100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>16.505</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>348256.13</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>16.505</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>34105</v>
@@ -2688,10 +2688,10 @@
         <v>20726</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>14.7265</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>305222.21</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>14.7265</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>35524</v>
@@ -2710,10 +2710,10 @@
         <v>19250</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>15.8684</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>305465.55</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>15.8684</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>27124</v>
@@ -2732,10 +2732,10 @@
         <v>16801</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>15.2168</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>255658.28</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>15.2168</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>25332</v>
@@ -2754,10 +2754,10 @@
         <v>16901</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>14.4495</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>244211.23</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>14.4495</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>28879</v>
@@ -2776,10 +2776,10 @@
         <v>16087</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.1916</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>260480.18</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.1916</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>28938</v>
@@ -2798,10 +2798,10 @@
         <v>15704</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>14.0783</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>221086.13</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>14.0783</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>16510</v>
@@ -2820,10 +2820,10 @@
         <v>15087</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>15.2156</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>229557.07</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>15.2156</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>21528</v>
@@ -2842,10 +2842,10 @@
         <v>13617</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17.2309</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>234633.02</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17.2309</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>21796</v>
@@ -2864,10 +2864,10 @@
         <v>13055</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>14.8058</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>193290.08</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>14.8058</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>22110</v>
@@ -2886,10 +2886,10 @@
         <v>12835</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>14.5139</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>186286</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>14.5139</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>17353</v>
@@ -2908,10 +2908,10 @@
         <v>11936</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>16.559</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>197648</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>16.559</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>7346</v>
@@ -2930,10 +2930,10 @@
         <v>11760</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>14.053</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>165263</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>14.053</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>5665</v>
@@ -2952,10 +2952,10 @@
         <v>11340</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.5108</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>175893</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.5108</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>6598</v>
@@ -2974,10 +2974,10 @@
         <v>11080</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15.0077</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>166285</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15.0077</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>6146</v>
@@ -2996,10 +2996,10 @@
         <v>10500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>14.9337</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>156804</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>14.9337</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>5297</v>
@@ -3018,10 +3018,10 @@
         <v>10510</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>13.691</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>143892</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>13.691</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>6257</v>
@@ -3040,10 +3040,10 @@
         <v>10010</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.4835</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>144980</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.4835</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>6651</v>
@@ -3062,10 +3062,10 @@
         <v>10080</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>12.4571</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>125568</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>12.4571</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5833</v>
@@ -3084,10 +3084,10 @@
         <v>9880</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.9736</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>128179</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.9736</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>4970</v>
@@ -3106,10 +3106,10 @@
         <v>10040</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.9243</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>119720</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.9243</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>3435</v>
@@ -3128,10 +3128,10 @@
         <v>9990</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11.8795</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>118676</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11.8795</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>4078</v>
@@ -3150,10 +3150,10 @@
         <v>9660</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>10.5834</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>102236</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>10.5834</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>4072</v>
@@ -3172,10 +3172,10 @@
         <v>9870</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.7215</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>115691</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.7215</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3748</v>
@@ -3194,10 +3194,10 @@
         <v>9830</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>10.1593</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>99866</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>10.1593</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2598</v>
@@ -3216,10 +3216,10 @@
         <v>9850</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>10.7303</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>105693</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>10.7303</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2804</v>
@@ -3238,10 +3238,10 @@
         <v>9750</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>10.3135</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>100557</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>10.3135</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>3406</v>
@@ -3260,10 +3260,10 @@
         <v>9460</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10.3399</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>97815</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10.3399</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>3356</v>
@@ -3282,10 +3282,10 @@
         <v>9560</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11.2474</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>107525</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11.2474</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3291</v>
@@ -3304,10 +3304,10 @@
         <v>9020</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10.5392</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>95064</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10.5392</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3458</v>
@@ -3326,10 +3326,10 @@
         <v>8715</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.6379</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>83994</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.6379</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>2394</v>
@@ -3348,10 +3348,10 @@
         <v>8695</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.8187</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>67984</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.8187</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4000</v>
@@ -3370,10 +3370,10 @@
         <v>8680</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.4658</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>64803</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.4658</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>5003</v>
@@ -3391,10 +3391,10 @@
         <v>8500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.4825</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>72101</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.4825</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5634</v>
@@ -3412,10 +3412,10 @@
         <v>8450</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7.7207</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>65240</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>7.7207</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4567</v>
@@ -3433,10 +3433,10 @@
         <v>8420</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7.1912</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>60550</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>7.1912</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>4416</v>
@@ -3454,10 +3454,10 @@
         <v>8220</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.9815</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>57388</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6.9815</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3444</v>
@@ -3475,10 +3475,10 @@
         <v>8365</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7.2108</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>60318</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7.2108</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3255</v>
@@ -3496,10 +3496,10 @@
         <v>8730</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.461399999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>56408</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.461399999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>3240</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Azerbaiyán</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Macedonia del Norte</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Túnez</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Belarús</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4113,7 +4113,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4212,7 +4212,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4226,7 +4226,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4240,7 +4240,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4254,7 +4254,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4268,7 +4268,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4296,7 +4296,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4310,7 +4310,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4324,7 +4324,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Lituania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4338,7 +4338,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Rumanía</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4534,8 +4534,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4630,7 +4630,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4644,7 +4644,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4658,7 +4658,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4672,7 +4672,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4686,7 +4686,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4700,7 +4700,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4714,7 +4714,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Suiza</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4728,7 +4728,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4742,7 +4742,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Lituania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4756,7 +4756,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Noruega</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4929,7 +4929,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5008,10 +5008,10 @@
         <v>14447</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>25.4627</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>367860</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>25.4627</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>53133.53</v>
@@ -5030,10 +5030,10 @@
         <v>14771</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>24.674</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>364460</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>24.674</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>48316.26</v>
@@ -5052,10 +5052,10 @@
         <v>14812</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>20.8885</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>309400</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>20.8885</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>52272.59</v>
@@ -5074,10 +5074,10 @@
         <v>15864</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.3254</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>354170</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.3254</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>53528.41</v>
@@ -5096,10 +5096,10 @@
         <v>15580</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.0494</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>359110</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.0494</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>38093.65</v>
@@ -5118,10 +5118,10 @@
         <v>15900</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>25.4642</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>404880</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>25.4642</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>73057.96000000001</v>
@@ -5140,10 +5140,10 @@
         <v>16140</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.5905</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>380750</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.5905</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>48843.82</v>
@@ -5162,10 +5162,10 @@
         <v>16794</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26.0029</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>436692</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26.0029</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>62585.28</v>
@@ -5184,10 +5184,10 @@
         <v>16552</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>23.4661</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>388411</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>23.4661</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>64528.26</v>
@@ -5206,10 +5206,10 @@
         <v>16430</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>23.1904</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>381018</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>23.1904</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>57938.43</v>
@@ -5228,10 +5228,10 @@
         <v>16997</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>23.9059</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>406328</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>23.9059</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>59202</v>
@@ -5250,10 +5250,10 @@
         <v>16309</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>22.3751</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>364915</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>22.3751</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>57918</v>
@@ -5272,10 +5272,10 @@
         <v>15580</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>22.4575</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>349888</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>22.4575</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>35277</v>
@@ -5294,10 +5294,10 @@
         <v>15580</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>19.8212</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>308815</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>19.8212</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>33275</v>
@@ -5316,10 +5316,10 @@
         <v>15580</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>20.1264</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>313569</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>20.1264</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>40992</v>
@@ -5338,10 +5338,10 @@
         <v>15459</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23.0801</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>356796</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23.0801</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>38923</v>
@@ -5360,10 +5360,10 @@
         <v>15419</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>19.2801</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>297280</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>19.2801</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>43358</v>
@@ -5382,10 +5382,10 @@
         <v>15580</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>20.0594</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>312525</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>20.0594</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>46855</v>
@@ -5404,10 +5404,10 @@
         <v>15621</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>18.128</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>283178</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>18.128</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>39939</v>
@@ -5426,10 +5426,10 @@
         <v>15783</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>17.7465</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>280093</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>17.7465</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>43699</v>
@@ -5448,10 +5448,10 @@
         <v>15904</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>17.6629</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>280910</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>17.6629</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>41989</v>
@@ -5470,10 +5470,10 @@
         <v>15945</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>16.1866</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>258096</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>16.1866</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>37356</v>
@@ -5492,10 +5492,10 @@
         <v>14407</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>16.7811</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>241766</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>16.7811</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>26838</v>
@@ -5514,10 +5514,10 @@
         <v>15054</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>17.2109</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>259093</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>17.2109</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>26458.44</v>
@@ -5536,10 +5536,10 @@
         <v>15459</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18.6525</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>288349</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18.6525</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>29019</v>
@@ -5558,10 +5558,10 @@
         <v>14810</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>16.6612</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>246753</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>16.6612</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26274</v>
@@ -5580,10 +5580,10 @@
         <v>14450</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17.2595</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>249400</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17.2595</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>20906</v>
@@ -5602,10 +5602,10 @@
         <v>13760</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>15.4012</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>211920</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>15.4012</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>19273</v>
@@ -5624,10 +5624,10 @@
         <v>13270</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>14.3361</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>190240</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>14.3361</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>25319</v>
@@ -5646,10 +5646,10 @@
         <v>12590</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.8681</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>212370</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.8681</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>25334</v>
@@ -5668,10 +5668,10 @@
         <v>11940</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>14.8918</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>177808</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>14.8918</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>13091</v>
@@ -5690,10 +5690,10 @@
         <v>11775</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>16.0255</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>188700</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>16.0255</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>17869</v>
@@ -5712,10 +5712,10 @@
         <v>11450</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>16.7162</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>191400</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>16.7162</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>19292</v>
@@ -5734,10 +5734,10 @@
         <v>11250</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>13.6756</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>153850</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>13.6756</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>17537</v>
@@ -5756,10 +5756,10 @@
         <v>11129</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15.2754</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>170000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15.2754</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>10931</v>
@@ -5778,10 +5778,10 @@
         <v>11050</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>16.7511</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>185100</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>16.7511</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>10800</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>153900</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>14.25</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5822,10 +5822,10 @@
         <v>10640</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.7331</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>167400</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.7331</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5844,10 +5844,10 @@
         <v>10400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15.2019</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>158100</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15.2019</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         <v>9960</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.1285</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>150680</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.1285</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5888,10 +5888,10 @@
         <v>9750</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>13.8913</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>135440</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>13.8913</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5910,10 +5910,10 @@
         <v>9470</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.5565</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>137850</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.5565</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5932,10 +5932,10 @@
         <v>9390</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>12.5261</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>117620</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>12.5261</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5954,10 +5954,10 @@
         <v>9390</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13.0309</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>122360</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13.0309</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>9390</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.9585</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>112290</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.9585</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5998,10 +5998,10 @@
         <v>9350</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11.9267</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>111515</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11.9267</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6020,10 +6020,10 @@
         <v>9110</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>10.467</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>95354</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>10.467</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6042,10 +6042,10 @@
         <v>9350</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.6784</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>109193</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.6784</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6064,10 +6064,10 @@
         <v>9430</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.981399999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>94125</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.981399999999999</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6086,10 +6086,10 @@
         <v>9470</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>10.7099</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>101423</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>10.7099</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>9350</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>10.1891</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>95268</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>10.1891</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6130,10 +6130,10 @@
         <v>9150</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10.3012</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>94256</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10.3012</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6152,10 +6152,10 @@
         <v>9060</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11.3387</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>102729</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11.3387</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
         <v>8780</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10.5214</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>92378</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10.5214</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6196,10 +6196,10 @@
         <v>8610</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.6044</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>82694</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.6044</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         <v>8590</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.7454</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>66533</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.7454</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6240,10 +6240,10 @@
         <v>8580</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.424</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>63698</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.424</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6261,10 +6261,10 @@
         <v>8400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.4864</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>71286</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.4864</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6282,10 +6282,10 @@
         <v>8350</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7.729</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>64537</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>7.729</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6303,10 +6303,10 @@
         <v>8340</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7.203600000000001</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>60078</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>7.203600000000001</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>8140</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.9905</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>56903</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6.9905</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6345,10 +6345,10 @@
         <v>8320</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7.220899999999999</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>60078</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7.220899999999999</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>8680</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.4611</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>56082</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.4611</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6705,7 +6705,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6784,10 +6784,10 @@
         <v>6994</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>21.6351</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>151316</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>21.6351</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1322.36</v>
@@ -6806,10 +6806,10 @@
         <v>7202</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>29.1986</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>210288</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>29.1986</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1700.02</v>
@@ -6828,10 +6828,10 @@
         <v>6852</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.851</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>156575</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.851</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1216.94</v>
@@ -6850,10 +6850,10 @@
         <v>6632</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>24.2978</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>161143</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>24.2978</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2588.28</v>
@@ -6872,10 +6872,10 @@
         <v>6564</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.8949</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>156846</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.8949</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4219.18</v>
@@ -6894,10 +6894,10 @@
         <v>6498</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>27.4757</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>178537</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>27.4757</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3453.56</v>
@@ -6916,10 +6916,10 @@
         <v>6962</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>19.8815</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>138415</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>19.8815</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2381.55</v>
@@ -6938,10 +6938,10 @@
         <v>6897</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26.1406</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>180292</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26.1406</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1957.24</v>
@@ -6960,10 +6960,10 @@
         <v>6853</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.1812</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>145155</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.1812</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1605.08</v>
@@ -6982,10 +6982,10 @@
         <v>6305</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>25.393</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>160103</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>25.393</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1239.23</v>
@@ -7004,10 +7004,10 @@
         <v>5921</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.7088</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>122617</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.7088</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>35534</v>
@@ -7026,10 +7026,10 @@
         <v>5750</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>22.224</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>127788</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>22.224</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>32404</v>
@@ -7048,10 +7048,10 @@
         <v>5141</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>17.155</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>88194</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>17.155</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>34592</v>
@@ -7070,10 +7070,10 @@
         <v>4676</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>16.126</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>75405</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>16.126</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>29462</v>
@@ -7092,10 +7092,10 @@
         <v>4552</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>19.0633</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>86776</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>19.0633</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>21115</v>
@@ -7114,10 +7114,10 @@
         <v>4425</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>16.4267</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>72688</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>16.4267</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>18132</v>
@@ -7136,10 +7136,10 @@
         <v>3944</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>17.9234</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>70690</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>17.9234</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>9621</v>
@@ -7158,10 +7158,10 @@
         <v>3780</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>20.2611</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>76587</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>20.2611</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2636</v>
@@ -7180,10 +7180,10 @@
         <v>2829</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>21.9756</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>62169</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>21.9756</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2085</v>
@@ -7202,10 +7202,10 @@
         <v>3389</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>19.7076</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>66789</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>19.7076</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>3277</v>
@@ -7224,10 +7224,10 @@
         <v>3185</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>20.8603</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>66440</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>20.8603</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2266</v>
@@ -7246,10 +7246,10 @@
         <v>2588</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>19.6947</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>50970</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>19.6947</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3987</v>
@@ -7268,10 +7268,10 @@
         <v>2523</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14.5256</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>36648</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14.5256</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>3414</v>
@@ -7290,10 +7290,10 @@
         <v>2331</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>15.9884</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>37269</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>15.9884</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2344</v>
@@ -7312,10 +7312,10 @@
         <v>2208</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18.187</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>40157</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18.187</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2387</v>
@@ -7332,10 +7332,10 @@
         <v>2179</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>16.6218</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>36219</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>16.6218</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>5575</v>
@@ -7352,10 +7352,10 @@
         <v>1766</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>14.9383</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>26381</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>14.9383</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1788</v>
@@ -7372,10 +7372,10 @@
         <v>1443</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>15.9307</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>22988</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>15.9307</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1920</v>
@@ -7392,10 +7392,10 @@
         <v>1382</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17.8155</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>24621</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17.8155</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1541</v>
@@ -7412,10 +7412,10 @@
         <v>1261</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>20.111</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>25360</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>20.111</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1705</v>
@@ -7432,10 +7432,10 @@
         <v>1229</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>12.716</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>15628</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>12.716</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1576</v>
@@ -7452,10 +7452,10 @@
         <v>1204</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>16.7002</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>20107</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>16.7002</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1625</v>
@@ -7472,10 +7472,10 @@
         <v>1159</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15.2657</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17693</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15.2657</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1067</v>
@@ -7492,10 +7492,10 @@
         <v>997</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>16.4403</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>16391</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>16.4403</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>3207</v>
@@ -7512,10 +7512,10 @@
         <v>983</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11.4303</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11236</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11.4303</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>4286</v>
@@ -7532,10 +7532,10 @@
         <v>886</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>14.1456</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>12533</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>14.1456</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4412</v>
@@ -7552,10 +7552,10 @@
         <v>960</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>11.826</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>11353</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>11.826</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>3523</v>
@@ -7572,10 +7572,10 @@
         <v>700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12.1257</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8488</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12.1257</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>3795</v>
@@ -7592,10 +7592,10 @@
         <v>680</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>12.0368</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8185</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>12.0368</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3700</v>
@@ -7612,10 +7612,10 @@
         <v>540</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11.3407</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>6124</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>11.3407</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2675</v>
@@ -7632,10 +7632,10 @@
         <v>760</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.1211</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8452</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.1211</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>2824</v>
@@ -7652,10 +7652,10 @@
         <v>540</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>13.2037</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7130</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>13.2037</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4520</v>
@@ -7672,10 +7672,10 @@
         <v>690</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>11.5188</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7948</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>11.5188</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3034</v>
@@ -7692,10 +7692,10 @@
         <v>490</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>11.8755</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5819</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>11.8755</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2727</v>
@@ -7712,10 +7712,10 @@
         <v>650</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.4308</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7430</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.4308</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1390</v>
@@ -7732,10 +7732,10 @@
         <v>640</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11.1891</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7161</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11.1891</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2478</v>
@@ -7752,10 +7752,10 @@
         <v>550</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>6882</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12.5127</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1826</v>
@@ -7772,10 +7772,10 @@
         <v>520</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>12.4962</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6498</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>12.4962</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2129</v>
@@ -7792,10 +7792,10 @@
         <v>400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14.3525</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5741</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14.3525</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1686</v>
@@ -7812,10 +7812,10 @@
         <v>380</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.2368</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4270</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.2368</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1893</v>
@@ -7832,10 +7832,10 @@
         <v>400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13.2225</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5289</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13.2225</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1873</v>
@@ -7852,10 +7852,10 @@
         <v>310</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.4806</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3559</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.4806</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>2164</v>
@@ -7872,10 +7872,10 @@
         <v>500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4796</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.592000000000001</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1929</v>
@@ -7892,10 +7892,10 @@
         <v>240</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.1917</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2686</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.1917</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1495</v>
@@ -7912,10 +7912,10 @@
         <v>105</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12.381</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1300</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12.381</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1184</v>
@@ -7932,10 +7932,10 @@
         <v>105</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>13.819</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1451</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>13.819</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1400</v>
@@ -7952,10 +7952,10 @@
         <v>100</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1105</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11.05</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1139</v>
@@ -7971,10 +7971,10 @@
         <v>100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>815</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.15</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1538</v>
@@ -7990,10 +7990,10 @@
         <v>100</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>703</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>7.03</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1720</v>
@@ -8009,10 +8009,10 @@
         <v>80</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>472</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5.9</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2413</v>
@@ -8028,10 +8028,10 @@
         <v>80</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.0625</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>485</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6.0625</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1937</v>
@@ -8047,10 +8047,10 @@
         <v>45</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.3333</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>240</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5.3333</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1933</v>
@@ -8066,10 +8066,10 @@
         <v>50</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>326</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.52</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2019</v>
@@ -8403,7 +8403,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8482,10 +8482,10 @@
         <v>186</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>65.414</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>12167</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>65.414</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>389.98</v>
@@ -8504,10 +8504,10 @@
         <v>175</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>78.5714</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13750</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>78.5714</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>339.4</v>
@@ -8526,10 +8526,10 @@
         <v>299</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>45.9699</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>13745</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>45.9699</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>244.69</v>
@@ -8548,10 +8548,10 @@
         <v>712</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19.9874</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>14231</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19.9874</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>201.34</v>
@@ -8570,10 +8570,10 @@
         <v>154</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>66.68180000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>10269</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>66.68180000000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>196.03</v>
@@ -8592,10 +8592,10 @@
         <v>151</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>67.83439999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>10243</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>67.83439999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>102.17</v>
@@ -8614,10 +8614,10 @@
         <v>144</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>69.5278</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>10012</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>69.5278</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>113.54</v>
@@ -8636,10 +8636,10 @@
         <v>145</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>10962</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>75.59999999999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>91.48</v>
@@ -8658,10 +8658,10 @@
         <v>144</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>76.04169999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10950</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>76.04169999999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>45.84</v>
@@ -8680,10 +8680,10 @@
         <v>151</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>72.7285</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>10982</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>72.7285</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>74.89</v>
@@ -8702,10 +8702,10 @@
         <v>168</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>70.46430000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>11838</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>70.46430000000001</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19</v>
@@ -8724,10 +8724,10 @@
         <v>187</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>66.139</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>12368</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>66.139</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>38</v>
@@ -8746,10 +8746,10 @@
         <v>155</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>80.1742</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>12427</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>80.1742</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>6</v>
@@ -8768,10 +8768,10 @@
         <v>154</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>81.2792</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>12517</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>81.2792</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>58</v>
@@ -8790,10 +8790,10 @@
         <v>176</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>82.2273</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>14472</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>82.2273</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>174</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>63.2759</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>11010</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>63.2759</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20</v>
@@ -8834,10 +8834,10 @@
         <v>175</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>55.5543</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9722</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>55.5543</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         <v>221</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>42.095</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9303</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>42.095</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8878,10 +8878,10 @@
         <v>248</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>46.371</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>11500</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>46.371</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>230</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>52.1739</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>12000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>52.1739</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8922,10 +8922,10 @@
         <v>300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>39.6667</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>11900</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>39.6667</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>55</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>11000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>55</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8966,10 +8966,10 @@
         <v>200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>60</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>200</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>60</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -9010,10 +9010,10 @@
         <v>205</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>62.439</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12800</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>62.439</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -9032,10 +9032,10 @@
         <v>179</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>78.2123</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>78.2123</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -9054,10 +9054,10 @@
         <v>96</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>134.375</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>12900</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>134.375</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>37</v>
@@ -9076,10 +9076,10 @@
         <v>70</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>192.8571</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>13500</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>192.8571</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9098,10 +9098,10 @@
         <v>91</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>148.3516</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13500</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>148.3516</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9120,10 +9120,10 @@
         <v>105</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>133.3333</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>133.3333</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         <v>327</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>42.8135</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>42.8135</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>1992</v>
       </c>
       <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="n">
+      <c r="D43" s="29" t="inlineStr"/>
+      <c r="E43" s="29" t="n">
         <v>14000</v>
       </c>
-      <c r="E43" s="29" t="inlineStr"/>
       <c r="F43" s="29" t="n">
         <v>0</v>
       </c>
@@ -9179,10 +9179,10 @@
         <v>1991</v>
       </c>
       <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="n">
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="n">
         <v>17000</v>
       </c>
-      <c r="E44" s="29" t="inlineStr"/>
       <c r="F44" s="29" t="n">
         <v>0</v>
       </c>
@@ -9197,10 +9197,10 @@
         <v>1990</v>
       </c>
       <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="n">
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="n">
         <v>16510.08</v>
       </c>
-      <c r="E45" s="29" t="inlineStr"/>
       <c r="F45" s="29" t="n">
         <v>0</v>
       </c>
@@ -9215,10 +9215,10 @@
         <v>1989</v>
       </c>
       <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
       </c>
@@ -9233,10 +9233,10 @@
         <v>1988</v>
       </c>
       <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="n">
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="E47" s="29" t="inlineStr"/>
       <c r="F47" s="29" t="n">
         <v>10</v>
       </c>
@@ -9251,10 +9251,10 @@
         <v>1987</v>
       </c>
       <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="n">
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="E48" s="29" t="inlineStr"/>
       <c r="F48" s="29" t="n">
         <v>0</v>
       </c>
@@ -9269,10 +9269,10 @@
         <v>1986</v>
       </c>
       <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="n">
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E49" s="29" t="inlineStr"/>
       <c r="F49" s="29" t="n">
         <v>0</v>
       </c>
@@ -9287,10 +9287,10 @@
         <v>1985</v>
       </c>
       <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
       </c>
@@ -9305,10 +9305,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -9323,10 +9323,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
@@ -9341,10 +9341,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -9359,10 +9359,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -9377,10 +9377,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -9395,10 +9395,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -9413,10 +9413,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -9431,10 +9431,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -9449,10 +9449,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -9467,10 +9467,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -9485,10 +9485,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -9503,10 +9503,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -9521,10 +9521,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -9539,10 +9539,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -9557,10 +9557,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -9575,10 +9575,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -9593,10 +9593,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -9611,10 +9611,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -9628,10 +9628,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -9645,10 +9645,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -9662,10 +9662,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -9679,10 +9679,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -9696,10 +9696,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -9713,10 +9713,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
@@ -10051,7 +10051,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10130,10 +10130,10 @@
         <v>637</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4.423</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2818.09</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4.423</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>28.36</v>
@@ -10152,10 +10152,10 @@
         <v>639</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4.4057</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2813.98</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4.4057</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>24.15</v>
@@ -10174,10 +10174,10 @@
         <v>637</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4.4394</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2827.01</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>4.4394</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>22.24</v>
@@ -10196,10 +10196,10 @@
         <v>636</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>4.4239</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2813.29</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>4.4239</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>19.1</v>
@@ -10218,10 +10218,10 @@
         <v>643</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>4.3543</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2801.63</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>4.3543</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>7.63</v>
@@ -10238,10 +10238,10 @@
         <v>631</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4.5417</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2866.11</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4.5417</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3.16</v>
@@ -10258,10 +10258,10 @@
         <v>633</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4.377</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2772.11</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4.377</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.57</v>
@@ -10278,10 +10278,10 @@
         <v>600</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4.6111</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2766.67</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4.6111</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.06</v>
@@ -10298,10 +10298,10 @@
         <v>700</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4.285699999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4.285699999999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.5</v>
@@ -10318,10 +10318,10 @@
         <v>600</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4.6667</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2800</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4.6667</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.91</v>
@@ -10338,10 +10338,10 @@
         <v>500</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2500</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -10360,10 +10360,10 @@
         <v>500</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2400</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4.8</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10382,10 +10382,10 @@
         <v>500</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2200</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4.4</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10404,10 +10404,10 @@
         <v>500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2400</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4.8</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -10424,10 +10424,10 @@
         <v>500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2200</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4.4</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -10444,10 +10444,10 @@
         <v>500</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2200</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4.4</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -10464,10 +10464,10 @@
         <v>600</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.6667</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3400</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5.6667</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -10484,10 +10484,10 @@
         <v>500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -10504,10 +10504,10 @@
         <v>400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1800</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>4.5</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -10524,10 +10524,10 @@
         <v>250</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>900</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3.6</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -10544,10 +10544,10 @@
         <v>300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4.6667</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1400</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4.6667</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -10564,10 +10564,10 @@
         <v>500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2500</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -10584,10 +10584,10 @@
         <v>400</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1500</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3.75</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -10604,10 +10604,10 @@
         <v>300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4.3333</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1300</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4.3333</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -10624,10 +10624,10 @@
         <v>300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3.3333</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3.3333</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -10644,10 +10644,10 @@
         <v>300</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3.3333</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3.3333</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -10664,10 +10664,10 @@
         <v>200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>600</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -10684,10 +10684,10 @@
         <v>200</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>500</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.5</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -10704,10 +10704,10 @@
         <v>200</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>600</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10724,10 +10724,10 @@
         <v>200</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>600</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10742,10 +10742,10 @@
         <v>200</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>600</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10760,10 +10760,10 @@
         <v>200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>700</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3.5</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10771,387 +10771,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11461,7 +11796,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11540,14 +11875,15 @@
         <v>190</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2.1885</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>414.95</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>2.1885</v>
-      </c>
       <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="G12" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -11558,14 +11894,15 @@
         <v>190</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2.2108</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>420.74</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>2.2108</v>
-      </c>
       <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="G13" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -11576,14 +11913,15 @@
         <v>191</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>413.78</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>2.168</v>
-      </c>
       <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="G14" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -11594,14 +11932,15 @@
         <v>188</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.1867</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>410.33</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>2.1867</v>
-      </c>
       <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="G15" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -11612,14 +11951,15 @@
         <v>192</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.2769</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>438.09</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>2.2769</v>
-      </c>
       <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="G16" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -11630,14 +11970,15 @@
         <v>193</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2.0408</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>392.91</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>2.0408</v>
-      </c>
       <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="G17" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -11648,14 +11989,15 @@
         <v>197</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.0335</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>400</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>2.0335</v>
-      </c>
       <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="G18" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -11666,14 +12008,15 @@
         <v>200</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>500</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="G19" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -11684,14 +12027,15 @@
         <v>200</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>300</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="G20" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -11702,14 +12046,15 @@
         <v>200</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>400</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>2</v>
-      </c>
       <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="G21" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -11720,16 +12065,17 @@
         <v>200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>800</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -11740,16 +12086,17 @@
         <v>250</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>700</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -11760,16 +12107,17 @@
         <v>300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>300</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G24" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -11780,16 +12128,17 @@
         <v>450</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>300</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>0.6667000000000001</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
+      <c r="F25" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -11800,16 +12149,17 @@
         <v>500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>300</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
+      <c r="F26" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G26" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -11820,16 +12170,17 @@
         <v>400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>600</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
+      <c r="F27" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G27" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -11840,16 +12191,17 @@
         <v>500</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>500</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
+      <c r="F28" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G28" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -11860,16 +12212,17 @@
         <v>500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>500</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
+      <c r="F29" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G29" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -11880,16 +12233,17 @@
         <v>500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>500</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G30" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -11900,16 +12254,17 @@
         <v>300</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -11920,16 +12275,17 @@
         <v>500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>50</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
+      <c r="F32" s="29" t="n">
+        <v>5</v>
+      </c>
       <c r="G32" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="H32" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -11940,16 +12296,17 @@
         <v>500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>300</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
+      <c r="F33" s="29" t="n">
+        <v>4</v>
+      </c>
       <c r="G33" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H33" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -11960,16 +12317,17 @@
         <v>500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>500</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
+      <c r="F34" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="G34" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -11980,16 +12338,17 @@
         <v>500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>500</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
+      <c r="F35" s="29" t="n">
+        <v>38</v>
+      </c>
       <c r="G35" s="29" t="n">
-        <v>38</v>
-      </c>
-      <c r="H35" s="29" t="n"/>
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -12000,8 +12359,9 @@
       <c r="D36" s="29" t="inlineStr"/>
       <c r="E36" s="29" t="inlineStr"/>
       <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="G36" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -12012,8 +12372,9 @@
       <c r="D37" s="29" t="inlineStr"/>
       <c r="E37" s="29" t="inlineStr"/>
       <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="G37" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -12024,8 +12385,9 @@
       <c r="D38" s="29" t="inlineStr"/>
       <c r="E38" s="29" t="inlineStr"/>
       <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="G38" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -12036,8 +12398,9 @@
       <c r="D39" s="29" t="inlineStr"/>
       <c r="E39" s="29" t="inlineStr"/>
       <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="G39" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -12048,8 +12411,9 @@
       <c r="D40" s="29" t="inlineStr"/>
       <c r="E40" s="29" t="inlineStr"/>
       <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="G40" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -12060,8 +12424,9 @@
       <c r="D41" s="29" t="inlineStr"/>
       <c r="E41" s="29" t="inlineStr"/>
       <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="G41" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -12072,8 +12437,9 @@
       <c r="D42" s="29" t="inlineStr"/>
       <c r="E42" s="29" t="inlineStr"/>
       <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="G42" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -12084,392 +12450,726 @@
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
       <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="G43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Arándanos trepadores.xlsx
+++ b/Resultados/Mercado mundial - Arándanos trepadores.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Canadá" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Azerbaiyán" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ucrania" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="United States of America" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Canada" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Azerbaijan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ukraine" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Canadá'!$B$12:$B$74</f>
+              <f>'Canada'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Canadá'!$C$12:$C$74</f>
+              <f>'Canada'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +924,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Azerbaiyán'!$B$12:$B$74</f>
+              <f>'Azerbaijan'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Azerbaiyán'!$C$12:$C$74</f>
+              <f>'Azerbaijan'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ucrania'!$B$12:$B$74</f>
+              <f>'Ukraine'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ucrania'!$C$12:$C$74</f>
+              <f>'Ukraine'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>22612</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>535221.24</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>23.67</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>535221.24</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>284919.52</v>
@@ -2160,10 +2160,10 @@
         <v>23149</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>592429.52</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>25.5922</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>592429.52</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>326017.36</v>
@@ -2182,10 +2182,10 @@
         <v>22985</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>483729.59</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>21.0452</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>483729.59</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>282526.43</v>
@@ -2204,10 +2204,10 @@
         <v>24222</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>533514.29</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.0256</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>533514.29</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>236760.37</v>
@@ -2226,10 +2226,10 @@
         <v>23314</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>530196.63</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.7415</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>530196.63</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>181661.38</v>
@@ -2248,10 +2248,10 @@
         <v>23558</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>597630.4399999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>25.3682</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>597630.4399999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>181374.25</v>
@@ -2270,10 +2270,10 @@
         <v>24597</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>534157.73</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21.7168</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>534157.73</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>142958.08</v>
@@ -2292,10 +2292,10 @@
         <v>25364</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>633616.88</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>24.9809</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>633616.88</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>132546.78</v>
@@ -2314,10 +2314,10 @@
         <v>24953</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>549989.22</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>22.0406</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>549989.22</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>124841.36</v>
@@ -2336,10 +2336,10 @@
         <v>24094</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>556748.42</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>23.1072</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>556748.42</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>108861.55</v>
@@ -2358,10 +2358,10 @@
         <v>25698</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>546291.62</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>21.2578</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>546291.62</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>135197</v>
@@ -2380,10 +2380,10 @@
         <v>25016</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>516211.33</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.635</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>516211.33</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>122117</v>
@@ -2402,10 +2402,10 @@
         <v>23612</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>462723.77</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>19.5967</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>462723.77</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>96994</v>
@@ -2424,10 +2424,10 @@
         <v>23640</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>409906.42</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>17.3394</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>409906.42</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>82185</v>
@@ -2446,10 +2446,10 @@
         <v>23552</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>426773.78</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>18.1205</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>426773.78</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>78387</v>
@@ -2468,10 +2468,10 @@
         <v>22514</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>451272.47</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>20.0438</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>451272.47</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>72403</v>
@@ -2490,10 +2490,10 @@
         <v>22423</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>388508.23</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>17.3265</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>388508.23</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>64368</v>
@@ -2512,10 +2512,10 @@
         <v>22637</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>409074.03</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>18.071</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>409074.03</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>60135</v>
@@ -2534,10 +2534,10 @@
         <v>21248</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>365045.56</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17.1802</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>365045.56</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>49059</v>
@@ -2556,10 +2556,10 @@
         <v>21780</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>366381.9</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>16.8219</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>366381.9</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>52315</v>
@@ -2578,10 +2578,10 @@
         <v>21737</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>365068.47</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>16.7948</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>365068.47</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>50294</v>
@@ -2600,10 +2600,10 @@
         <v>22090</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>329043.23</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>14.8953</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>329043.23</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>46238</v>
@@ -2622,10 +2622,10 @@
         <v>21399</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>300107.96</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14.0247</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>300107.96</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>35229</v>
@@ -2644,10 +2644,10 @@
         <v>21021</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>318443.79</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>15.149</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>318443.79</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>31973.37</v>
@@ -2666,10 +2666,10 @@
         <v>21100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>348256.13</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>16.505</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>348256.13</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>34105</v>
@@ -2688,10 +2688,10 @@
         <v>20726</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>305222.21</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>14.7265</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>305222.21</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>35524</v>
@@ -2710,10 +2710,10 @@
         <v>19250</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>305465.55</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>15.8684</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>305465.55</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>27124</v>
@@ -2732,10 +2732,10 @@
         <v>16801</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>255658.28</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>15.2168</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>255658.28</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>25332</v>
@@ -2754,10 +2754,10 @@
         <v>16901</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>244211.23</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>14.4495</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>244211.23</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>28879</v>
@@ -2776,10 +2776,10 @@
         <v>16087</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>260480.18</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.1916</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>260480.18</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>28938</v>
@@ -2798,10 +2798,10 @@
         <v>15704</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>221086.13</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>14.0783</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>221086.13</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>16510</v>
@@ -2820,10 +2820,10 @@
         <v>15087</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>229557.07</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>15.2156</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>229557.07</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>21528</v>
@@ -2842,10 +2842,10 @@
         <v>13617</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>234633.02</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17.2309</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>234633.02</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>21796</v>
@@ -2864,10 +2864,10 @@
         <v>13055</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>193290.08</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>14.8058</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>193290.08</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>22110</v>
@@ -2886,10 +2886,10 @@
         <v>12835</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>186286</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>14.5139</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>186286</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>17353</v>
@@ -2908,10 +2908,10 @@
         <v>11936</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>197648</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>16.559</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>197648</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>7346</v>
@@ -2930,10 +2930,10 @@
         <v>11760</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>165263</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>14.053</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>165263</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>5665</v>
@@ -2952,10 +2952,10 @@
         <v>11340</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>175893</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.5108</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>175893</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>6598</v>
@@ -2974,10 +2974,10 @@
         <v>11080</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>166285</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15.0077</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>166285</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>6146</v>
@@ -2996,10 +2996,10 @@
         <v>10500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>156804</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>14.9337</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>156804</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>5297</v>
@@ -3018,10 +3018,10 @@
         <v>10510</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>143892</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>13.691</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>143892</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>6257</v>
@@ -3040,10 +3040,10 @@
         <v>10010</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>144980</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.4835</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>144980</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>6651</v>
@@ -3062,10 +3062,10 @@
         <v>10080</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>125568</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>12.4571</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>125568</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5833</v>
@@ -3084,10 +3084,10 @@
         <v>9880</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>128179</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.9736</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>128179</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>4970</v>
@@ -3106,10 +3106,10 @@
         <v>10040</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>119720</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.9243</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>119720</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>3435</v>
@@ -3128,10 +3128,10 @@
         <v>9990</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>118676</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11.8795</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>118676</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>4078</v>
@@ -3150,10 +3150,10 @@
         <v>9660</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>102236</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>10.5834</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>102236</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>4072</v>
@@ -3172,10 +3172,10 @@
         <v>9870</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>115691</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.7215</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>115691</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3748</v>
@@ -3194,10 +3194,10 @@
         <v>9830</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>99866</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>10.1593</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>99866</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2598</v>
@@ -3216,10 +3216,10 @@
         <v>9850</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>105693</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>10.7303</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>105693</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2804</v>
@@ -3238,10 +3238,10 @@
         <v>9750</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>100557</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>10.3135</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>100557</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>3406</v>
@@ -3260,10 +3260,10 @@
         <v>9460</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>97815</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10.3399</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>97815</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>3356</v>
@@ -3282,10 +3282,10 @@
         <v>9560</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>107525</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11.2474</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>107525</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3291</v>
@@ -3304,10 +3304,10 @@
         <v>9020</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>95064</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10.5392</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>95064</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3458</v>
@@ -3326,10 +3326,10 @@
         <v>8715</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>83994</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.6379</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>83994</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>2394</v>
@@ -3348,10 +3348,10 @@
         <v>8695</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>67984</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.8187</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>67984</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4000</v>
@@ -3370,10 +3370,10 @@
         <v>8680</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>64803</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.4658</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>64803</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>5003</v>
@@ -3391,10 +3391,10 @@
         <v>8500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>72101</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.4825</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>72101</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5634</v>
@@ -3412,10 +3412,10 @@
         <v>8450</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>65240</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7.7207</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>65240</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4567</v>
@@ -3433,10 +3433,10 @@
         <v>8420</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>60550</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7.1912</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>60550</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>4416</v>
@@ -3454,10 +3454,10 @@
         <v>8220</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>57388</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.9815</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>57388</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3444</v>
@@ -3475,10 +3475,10 @@
         <v>8365</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>60318</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7.2108</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>60318</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3255</v>
@@ -3496,10 +3496,10 @@
         <v>8730</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>56408</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.461399999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>56408</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>3240</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Azerbaiyán</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Macedonia del Norte</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Túnez</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belarús</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4113,7 +4113,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4212,7 +4212,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4226,7 +4226,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4240,7 +4240,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4254,7 +4254,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4268,7 +4268,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4296,7 +4296,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4310,7 +4310,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4324,7 +4324,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Lituania</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4338,7 +4338,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Rumanía</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4534,8 +4534,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4630,7 +4630,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4644,7 +4644,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4658,7 +4658,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4672,7 +4672,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4686,7 +4686,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4700,7 +4700,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4714,7 +4714,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Suiza</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4728,7 +4728,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4742,7 +4742,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Lituania</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4756,7 +4756,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Noruega</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4929,7 +4929,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5008,10 +5008,10 @@
         <v>14447</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>367860</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>25.4627</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>367860</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>53133.53</v>
@@ -5030,10 +5030,10 @@
         <v>14771</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>364460</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>24.674</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>364460</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>48316.26</v>
@@ -5052,10 +5052,10 @@
         <v>14812</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>309400</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>20.8885</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>309400</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>52272.59</v>
@@ -5074,10 +5074,10 @@
         <v>15864</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>354170</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.3254</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>354170</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>53528.41</v>
@@ -5096,10 +5096,10 @@
         <v>15580</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>359110</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.0494</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>359110</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>38093.65</v>
@@ -5118,10 +5118,10 @@
         <v>15900</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>404880</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>25.4642</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>404880</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>73057.96000000001</v>
@@ -5140,10 +5140,10 @@
         <v>16140</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>380750</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.5905</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>380750</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>48843.82</v>
@@ -5162,10 +5162,10 @@
         <v>16794</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>436692</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26.0029</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>436692</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>62585.28</v>
@@ -5184,10 +5184,10 @@
         <v>16552</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>388411</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>23.4661</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>388411</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>64528.26</v>
@@ -5206,10 +5206,10 @@
         <v>16430</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>381018</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>23.1904</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>381018</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>57938.43</v>
@@ -5228,10 +5228,10 @@
         <v>16997</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>406328</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>23.9059</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>406328</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>59202</v>
@@ -5250,10 +5250,10 @@
         <v>16309</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>364915</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>22.3751</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>364915</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>57918</v>
@@ -5272,10 +5272,10 @@
         <v>15580</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>349888</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>22.4575</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>349888</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>35277</v>
@@ -5294,10 +5294,10 @@
         <v>15580</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>308815</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>19.8212</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>308815</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>33275</v>
@@ -5316,10 +5316,10 @@
         <v>15580</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>313569</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>20.1264</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>313569</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>40992</v>
@@ -5338,10 +5338,10 @@
         <v>15459</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>356796</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23.0801</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>356796</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>38923</v>
@@ -5360,10 +5360,10 @@
         <v>15419</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>297280</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>19.2801</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>297280</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>43358</v>
@@ -5382,10 +5382,10 @@
         <v>15580</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>312525</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>20.0594</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>312525</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>46855</v>
@@ -5404,10 +5404,10 @@
         <v>15621</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>283178</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>18.128</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>283178</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>39939</v>
@@ -5426,10 +5426,10 @@
         <v>15783</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>280093</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>17.7465</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>280093</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>43699</v>
@@ -5448,10 +5448,10 @@
         <v>15904</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>280910</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>17.6629</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>280910</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>41989</v>
@@ -5470,10 +5470,10 @@
         <v>15945</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>258096</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>16.1866</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>258096</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>37356</v>
@@ -5492,10 +5492,10 @@
         <v>14407</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>241766</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>16.7811</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>241766</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>26838</v>
@@ -5514,10 +5514,10 @@
         <v>15054</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>259093</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>17.2109</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>259093</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>26458.44</v>
@@ -5536,10 +5536,10 @@
         <v>15459</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>288349</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18.6525</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>288349</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>29019</v>
@@ -5558,10 +5558,10 @@
         <v>14810</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>246753</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>16.6612</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>246753</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26274</v>
@@ -5580,10 +5580,10 @@
         <v>14450</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>249400</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17.2595</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>249400</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>20906</v>
@@ -5602,10 +5602,10 @@
         <v>13760</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>211920</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>15.4012</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>211920</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>19273</v>
@@ -5624,10 +5624,10 @@
         <v>13270</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>190240</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>14.3361</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>190240</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>25319</v>
@@ -5646,10 +5646,10 @@
         <v>12590</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>212370</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.8681</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>212370</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>25334</v>
@@ -5668,10 +5668,10 @@
         <v>11940</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>177808</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>14.8918</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>177808</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>13091</v>
@@ -5690,10 +5690,10 @@
         <v>11775</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>188700</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>16.0255</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>188700</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>17869</v>
@@ -5712,10 +5712,10 @@
         <v>11450</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>191400</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>16.7162</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>191400</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>19292</v>
@@ -5734,10 +5734,10 @@
         <v>11250</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>153850</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>13.6756</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>153850</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>17537</v>
@@ -5756,10 +5756,10 @@
         <v>11129</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15.2754</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>170000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>10931</v>
@@ -5778,10 +5778,10 @@
         <v>11050</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>185100</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>16.7511</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>185100</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>10800</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>153900</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>14.25</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>153900</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5822,10 +5822,10 @@
         <v>10640</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>167400</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.7331</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>167400</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5844,10 +5844,10 @@
         <v>10400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>158100</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15.2019</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>158100</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         <v>9960</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>150680</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.1285</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>150680</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5888,10 +5888,10 @@
         <v>9750</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>135440</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>13.8913</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>135440</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5910,10 +5910,10 @@
         <v>9470</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>137850</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.5565</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>137850</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5932,10 +5932,10 @@
         <v>9390</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>117620</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>12.5261</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>117620</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5954,10 +5954,10 @@
         <v>9390</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>122360</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13.0309</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>122360</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>9390</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>112290</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.9585</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>112290</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5998,10 +5998,10 @@
         <v>9350</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>111515</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11.9267</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>111515</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6020,10 +6020,10 @@
         <v>9110</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>95354</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>10.467</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>95354</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6042,10 +6042,10 @@
         <v>9350</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>109193</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.6784</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>109193</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6064,10 +6064,10 @@
         <v>9430</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>94125</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.981399999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>94125</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6086,10 +6086,10 @@
         <v>9470</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>101423</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>10.7099</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>101423</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6108,10 +6108,10 @@
         <v>9350</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>95268</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>10.1891</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>95268</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6130,10 +6130,10 @@
         <v>9150</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>94256</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10.3012</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>94256</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6152,10 +6152,10 @@
         <v>9060</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>102729</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11.3387</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>102729</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
         <v>8780</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>92378</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10.5214</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>92378</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6196,10 +6196,10 @@
         <v>8610</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>82694</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.6044</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>82694</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         <v>8590</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>66533</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.7454</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>66533</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6240,10 +6240,10 @@
         <v>8580</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>63698</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.424</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>63698</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6261,10 +6261,10 @@
         <v>8400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>71286</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.4864</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>71286</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6282,10 +6282,10 @@
         <v>8350</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>64537</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7.729</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>64537</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6303,10 +6303,10 @@
         <v>8340</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>60078</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7.203600000000001</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>60078</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>8140</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>56903</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.9905</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>56903</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6345,10 +6345,10 @@
         <v>8320</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>60078</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7.220899999999999</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>60078</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>8680</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>56082</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.4611</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>56082</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6705,7 +6705,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6784,10 +6784,10 @@
         <v>6994</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>151316</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>21.6351</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>151316</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1322.36</v>
@@ -6806,10 +6806,10 @@
         <v>7202</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>210288</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>29.1986</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>210288</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1700.02</v>
@@ -6828,10 +6828,10 @@
         <v>6852</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>156575</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.851</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>156575</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1216.94</v>
@@ -6850,10 +6850,10 @@
         <v>6632</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>161143</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>24.2978</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>161143</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2588.28</v>
@@ -6872,10 +6872,10 @@
         <v>6564</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>156846</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.8949</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>156846</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4219.18</v>
@@ -6894,10 +6894,10 @@
         <v>6498</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>178537</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>27.4757</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>178537</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3453.56</v>
@@ -6916,10 +6916,10 @@
         <v>6962</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>138415</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>19.8815</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>138415</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2381.55</v>
@@ -6938,10 +6938,10 @@
         <v>6897</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>180292</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26.1406</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>180292</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1957.24</v>
@@ -6960,10 +6960,10 @@
         <v>6853</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>145155</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.1812</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>145155</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1605.08</v>
@@ -6982,10 +6982,10 @@
         <v>6305</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>160103</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>25.393</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>160103</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1239.23</v>
@@ -7004,10 +7004,10 @@
         <v>5921</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>122617</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.7088</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>122617</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>35534</v>
@@ -7026,10 +7026,10 @@
         <v>5750</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>127788</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>22.224</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>127788</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>32404</v>
@@ -7048,10 +7048,10 @@
         <v>5141</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>88194</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>17.155</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>88194</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>34592</v>
@@ -7070,10 +7070,10 @@
         <v>4676</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>75405</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>16.126</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>75405</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>29462</v>
@@ -7092,10 +7092,10 @@
         <v>4552</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>86776</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>19.0633</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>86776</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>21115</v>
@@ -7114,10 +7114,10 @@
         <v>4425</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>72688</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>16.4267</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>72688</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>18132</v>
@@ -7136,10 +7136,10 @@
         <v>3944</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>70690</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>17.9234</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>70690</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>9621</v>
@@ -7158,10 +7158,10 @@
         <v>3780</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>76587</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>20.2611</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>76587</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2636</v>
@@ -7180,10 +7180,10 @@
         <v>2829</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>62169</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>21.9756</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>62169</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2085</v>
@@ -7202,10 +7202,10 @@
         <v>3389</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>66789</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>19.7076</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>66789</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>3277</v>
@@ -7224,10 +7224,10 @@
         <v>3185</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>66440</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>20.8603</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>66440</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2266</v>
@@ -7246,10 +7246,10 @@
         <v>2588</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>50970</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>19.6947</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>50970</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>3987</v>
@@ -7268,10 +7268,10 @@
         <v>2523</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>36648</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14.5256</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>36648</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>3414</v>
@@ -7290,10 +7290,10 @@
         <v>2331</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>37269</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>15.9884</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>37269</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2344</v>
@@ -7312,10 +7312,10 @@
         <v>2208</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>40157</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18.187</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>40157</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2387</v>
@@ -7332,10 +7332,10 @@
         <v>2179</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>36219</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>16.6218</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>36219</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>5575</v>
@@ -7352,10 +7352,10 @@
         <v>1766</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>26381</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>14.9383</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>26381</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1788</v>
@@ -7372,10 +7372,10 @@
         <v>1443</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>22988</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>15.9307</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>22988</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1920</v>
@@ -7392,10 +7392,10 @@
         <v>1382</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>24621</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17.8155</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>24621</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1541</v>
@@ -7412,10 +7412,10 @@
         <v>1261</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>25360</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>20.111</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>25360</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1705</v>
@@ -7432,10 +7432,10 @@
         <v>1229</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>15628</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>12.716</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>15628</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1576</v>
@@ -7452,10 +7452,10 @@
         <v>1204</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>20107</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>16.7002</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>20107</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1625</v>
@@ -7472,10 +7472,10 @@
         <v>1159</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17693</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15.2657</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17693</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1067</v>
@@ -7492,10 +7492,10 @@
         <v>997</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>16391</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>16.4403</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>16391</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>3207</v>
@@ -7512,10 +7512,10 @@
         <v>983</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11236</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11.4303</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11236</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>4286</v>
@@ -7532,10 +7532,10 @@
         <v>886</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>12533</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>14.1456</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>12533</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4412</v>
@@ -7552,10 +7552,10 @@
         <v>960</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>11353</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>11.826</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>11353</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>3523</v>
@@ -7572,10 +7572,10 @@
         <v>700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8488</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12.1257</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8488</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>3795</v>
@@ -7592,10 +7592,10 @@
         <v>680</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8185</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>12.0368</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8185</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3700</v>
@@ -7612,10 +7612,10 @@
         <v>540</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>6124</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11.3407</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>6124</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2675</v>
@@ -7632,10 +7632,10 @@
         <v>760</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8452</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.1211</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8452</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>2824</v>
@@ -7652,10 +7652,10 @@
         <v>540</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7130</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>13.2037</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7130</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4520</v>
@@ -7672,10 +7672,10 @@
         <v>690</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7948</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>11.5188</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>7948</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3034</v>
@@ -7692,10 +7692,10 @@
         <v>490</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5819</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>11.8755</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5819</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2727</v>
@@ -7712,10 +7712,10 @@
         <v>650</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7430</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.4308</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7430</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1390</v>
@@ -7732,10 +7732,10 @@
         <v>640</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7161</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11.1891</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7161</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2478</v>
@@ -7752,10 +7752,10 @@
         <v>550</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>6882</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12.5127</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>6882</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1826</v>
@@ -7772,10 +7772,10 @@
         <v>520</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6498</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>12.4962</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6498</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2129</v>
@@ -7792,10 +7792,10 @@
         <v>400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5741</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14.3525</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5741</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1686</v>
@@ -7812,10 +7812,10 @@
         <v>380</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4270</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.2368</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4270</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1893</v>
@@ -7832,10 +7832,10 @@
         <v>400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5289</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13.2225</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>5289</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1873</v>
@@ -7852,10 +7852,10 @@
         <v>310</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3559</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.4806</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3559</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>2164</v>
@@ -7872,10 +7872,10 @@
         <v>500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4796</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.592000000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4796</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1929</v>
@@ -7892,10 +7892,10 @@
         <v>240</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2686</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.1917</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2686</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1495</v>
@@ -7912,10 +7912,10 @@
         <v>105</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12.381</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1300</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1184</v>
@@ -7932,10 +7932,10 @@
         <v>105</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>13.819</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1451</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1400</v>
@@ -7952,10 +7952,10 @@
         <v>100</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11.05</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1105</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1139</v>
@@ -7971,10 +7971,10 @@
         <v>100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>815</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.15</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>815</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1538</v>
@@ -7990,10 +7990,10 @@
         <v>100</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>703</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7.03</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>703</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1720</v>
@@ -8009,10 +8009,10 @@
         <v>80</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>472</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5.9</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>472</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2413</v>
@@ -8028,10 +8028,10 @@
         <v>80</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>485</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.0625</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>485</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1937</v>
@@ -8047,10 +8047,10 @@
         <v>45</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>240</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.3333</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>240</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1933</v>
@@ -8066,10 +8066,10 @@
         <v>50</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>326</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.52</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>326</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2019</v>
@@ -8403,7 +8403,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8482,10 +8482,10 @@
         <v>186</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>12167</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>65.414</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>12167</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>389.98</v>
@@ -8504,10 +8504,10 @@
         <v>175</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13750</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>78.5714</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13750</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>339.4</v>
@@ -8526,10 +8526,10 @@
         <v>299</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>13745</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>45.9699</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>13745</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>244.69</v>
@@ -8548,10 +8548,10 @@
         <v>712</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>14231</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19.9874</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>14231</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>201.34</v>
@@ -8570,10 +8570,10 @@
         <v>154</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>10269</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>66.68180000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>10269</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>196.03</v>
@@ -8592,10 +8592,10 @@
         <v>151</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>10243</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>67.83439999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>10243</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>102.17</v>
@@ -8614,10 +8614,10 @@
         <v>144</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>10012</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>69.5278</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>10012</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>113.54</v>
@@ -8636,10 +8636,10 @@
         <v>145</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>10962</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>75.59999999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>10962</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>91.48</v>
@@ -8658,10 +8658,10 @@
         <v>144</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10950</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>76.04169999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>10950</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>45.84</v>
@@ -8680,10 +8680,10 @@
         <v>151</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>10982</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>72.7285</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>10982</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>74.89</v>
@@ -8702,10 +8702,10 @@
         <v>168</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>11838</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>70.46430000000001</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>11838</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19</v>
@@ -8724,10 +8724,10 @@
         <v>187</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>12368</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>66.139</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>12368</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>38</v>
@@ -8746,10 +8746,10 @@
         <v>155</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>12427</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>80.1742</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>12427</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>6</v>
@@ -8768,10 +8768,10 @@
         <v>154</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>12517</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>81.2792</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>12517</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>58</v>
@@ -8790,10 +8790,10 @@
         <v>176</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>14472</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>82.2273</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>14472</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>174</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>11010</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>63.2759</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>11010</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20</v>
@@ -8834,10 +8834,10 @@
         <v>175</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9722</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>55.5543</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9722</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -8856,10 +8856,10 @@
         <v>221</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9303</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>42.095</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9303</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8878,10 +8878,10 @@
         <v>248</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>46.371</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>11500</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>230</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>52.1739</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>12000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8922,10 +8922,10 @@
         <v>300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>39.6667</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>11900</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>55</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>11000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8966,10 +8966,10 @@
         <v>200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>60</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>200</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>60</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -9010,10 +9010,10 @@
         <v>205</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>62.439</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12800</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -9032,10 +9032,10 @@
         <v>179</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>78.2123</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -9054,10 +9054,10 @@
         <v>96</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>12900</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>134.375</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>12900</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>37</v>
@@ -9076,10 +9076,10 @@
         <v>70</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>192.8571</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>13500</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9098,10 +9098,10 @@
         <v>91</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13500</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>148.3516</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13500</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9120,10 +9120,10 @@
         <v>105</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>133.3333</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9142,10 +9142,10 @@
         <v>327</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>42.8135</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>1992</v>
       </c>
       <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="inlineStr"/>
-      <c r="E43" s="29" t="n">
+      <c r="D43" s="29" t="n">
         <v>14000</v>
       </c>
+      <c r="E43" s="29" t="inlineStr"/>
       <c r="F43" s="29" t="n">
         <v>0</v>
       </c>
@@ -9179,10 +9179,10 @@
         <v>1991</v>
       </c>
       <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="n">
+      <c r="D44" s="29" t="n">
         <v>17000</v>
       </c>
+      <c r="E44" s="29" t="inlineStr"/>
       <c r="F44" s="29" t="n">
         <v>0</v>
       </c>
@@ -9197,10 +9197,10 @@
         <v>1990</v>
       </c>
       <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="n">
+      <c r="D45" s="29" t="n">
         <v>16510.08</v>
       </c>
+      <c r="E45" s="29" t="inlineStr"/>
       <c r="F45" s="29" t="n">
         <v>0</v>
       </c>
@@ -9215,10 +9215,10 @@
         <v>1989</v>
       </c>
       <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29" t="inlineStr"/>
       <c r="F46" s="29" t="n">
         <v>0</v>
       </c>
@@ -9233,10 +9233,10 @@
         <v>1988</v>
       </c>
       <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="n">
+      <c r="D47" s="29" t="n">
         <v>15</v>
       </c>
+      <c r="E47" s="29" t="inlineStr"/>
       <c r="F47" s="29" t="n">
         <v>10</v>
       </c>
@@ -9251,10 +9251,10 @@
         <v>1987</v>
       </c>
       <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="n">
+      <c r="D48" s="29" t="n">
         <v>10</v>
       </c>
+      <c r="E48" s="29" t="inlineStr"/>
       <c r="F48" s="29" t="n">
         <v>0</v>
       </c>
@@ -9269,10 +9269,10 @@
         <v>1986</v>
       </c>
       <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="n">
+      <c r="D49" s="29" t="n">
         <v>5</v>
       </c>
+      <c r="E49" s="29" t="inlineStr"/>
       <c r="F49" s="29" t="n">
         <v>0</v>
       </c>
@@ -9287,10 +9287,10 @@
         <v>1985</v>
       </c>
       <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D50" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="29" t="inlineStr"/>
       <c r="F50" s="29" t="n">
         <v>0</v>
       </c>
@@ -9305,10 +9305,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D51" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -9323,10 +9323,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D52" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
@@ -9341,10 +9341,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -9359,10 +9359,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -9377,10 +9377,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -9395,10 +9395,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -9413,10 +9413,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -9431,10 +9431,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -9449,10 +9449,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -9467,10 +9467,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -9485,10 +9485,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -9503,10 +9503,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -9521,10 +9521,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -9539,10 +9539,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -9557,10 +9557,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -9575,10 +9575,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -9593,10 +9593,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -9611,10 +9611,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -9628,10 +9628,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -9645,10 +9645,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -9662,10 +9662,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -9679,10 +9679,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -9696,10 +9696,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -9713,10 +9713,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
@@ -10051,7 +10051,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10130,10 +10130,10 @@
         <v>637</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2818.09</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4.423</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2818.09</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>28.36</v>
@@ -10152,10 +10152,10 @@
         <v>639</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2813.98</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4.4057</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2813.98</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>24.15</v>
@@ -10174,10 +10174,10 @@
         <v>637</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2827.01</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4.4394</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2827.01</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>22.24</v>
@@ -10196,10 +10196,10 @@
         <v>636</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2813.29</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>4.4239</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2813.29</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>19.1</v>
@@ -10218,10 +10218,10 @@
         <v>643</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2801.63</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>4.3543</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2801.63</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>7.63</v>
@@ -10238,10 +10238,10 @@
         <v>631</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2866.11</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4.5417</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2866.11</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3.16</v>
@@ -10258,10 +10258,10 @@
         <v>633</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2772.11</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4.377</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2772.11</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.57</v>
@@ -10278,10 +10278,10 @@
         <v>600</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2766.67</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4.6111</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2766.67</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.06</v>
@@ -10298,10 +10298,10 @@
         <v>700</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4.285699999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.5</v>
@@ -10318,10 +10318,10 @@
         <v>600</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2800</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4.6667</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2800</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.91</v>
@@ -10338,10 +10338,10 @@
         <v>500</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2500</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -10360,10 +10360,10 @@
         <v>500</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4.8</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2400</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -10382,10 +10382,10 @@
         <v>500</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4.4</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2200</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -10404,10 +10404,10 @@
         <v>500</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.8</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2400</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -10424,10 +10424,10 @@
         <v>500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4.4</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2200</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -10444,10 +10444,10 @@
         <v>500</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4.4</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2200</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -10464,10 +10464,10 @@
         <v>600</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3400</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.6667</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3400</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -10484,10 +10484,10 @@
         <v>500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -10504,10 +10504,10 @@
         <v>400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4.5</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1800</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -10524,10 +10524,10 @@
         <v>250</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>900</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3.6</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>900</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -10544,10 +10544,10 @@
         <v>300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4.6667</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1400</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -10564,10 +10564,10 @@
         <v>500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2500</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -10584,10 +10584,10 @@
         <v>400</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3.75</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1500</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -10604,10 +10604,10 @@
         <v>300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4.3333</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1300</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -10624,10 +10624,10 @@
         <v>300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3.3333</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1000</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -10644,10 +10644,10 @@
         <v>300</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3.3333</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1000</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -10664,10 +10664,10 @@
         <v>200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>600</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>600</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -10684,10 +10684,10 @@
         <v>200</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.5</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>500</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -10704,10 +10704,10 @@
         <v>200</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>600</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>600</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -10724,10 +10724,10 @@
         <v>200</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>600</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>600</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10742,10 +10742,10 @@
         <v>200</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>600</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>600</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10760,10 +10760,10 @@
         <v>200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>700</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3.5</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>700</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10771,722 +10771,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11796,7 +11461,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11875,15 +11540,14 @@
         <v>190</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>414.95</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2.1885</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>414.95</v>
-      </c>
       <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -11894,15 +11558,14 @@
         <v>190</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>420.74</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2.2108</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>420.74</v>
-      </c>
       <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -11913,15 +11576,14 @@
         <v>191</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>413.78</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.168</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>413.78</v>
-      </c>
       <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -11932,15 +11594,14 @@
         <v>188</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>410.33</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.1867</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>410.33</v>
-      </c>
       <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -11951,15 +11612,14 @@
         <v>192</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>438.09</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.2769</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>438.09</v>
-      </c>
       <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -11970,15 +11630,14 @@
         <v>193</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>392.91</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2.0408</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>392.91</v>
-      </c>
       <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -11989,15 +11648,14 @@
         <v>197</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>400</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.0335</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>400</v>
-      </c>
       <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -12008,15 +11666,14 @@
         <v>200</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2.5</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>500</v>
-      </c>
       <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -12027,15 +11684,14 @@
         <v>200</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>300</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.5</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>300</v>
-      </c>
       <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -12046,15 +11702,14 @@
         <v>200</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>400</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>400</v>
-      </c>
       <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -12065,17 +11720,16 @@
         <v>200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>800</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>800</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -12086,17 +11740,16 @@
         <v>250</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>700</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.8</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>700</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -12107,17 +11760,16 @@
         <v>300</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>300</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>300</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -12128,17 +11780,16 @@
         <v>450</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>300</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.6667000000000001</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>300</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -12149,17 +11800,16 @@
         <v>500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>300</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.6</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>300</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -12170,17 +11820,16 @@
         <v>400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>600</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.5</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>600</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -12191,17 +11840,16 @@
         <v>500</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>500</v>
-      </c>
-      <c r="F28" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -12212,17 +11860,16 @@
         <v>500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>500</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -12233,17 +11880,16 @@
         <v>500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>500</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -12254,17 +11900,16 @@
         <v>300</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.3333</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -12275,17 +11920,16 @@
         <v>500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.1</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>50</v>
-      </c>
-      <c r="F32" s="29" t="n">
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -12296,17 +11940,16 @@
         <v>500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>300</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.6</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>300</v>
-      </c>
-      <c r="F33" s="29" t="n">
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -12317,17 +11960,16 @@
         <v>500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>500</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
         <v>0</v>
       </c>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -12338,17 +11980,16 @@
         <v>500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" s="29" t="n">
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="n">
         <v>38</v>
       </c>
-      <c r="G35" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -12359,9 +12000,8 @@
       <c r="D36" s="29" t="inlineStr"/>
       <c r="E36" s="29" t="inlineStr"/>
       <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -12372,9 +12012,8 @@
       <c r="D37" s="29" t="inlineStr"/>
       <c r="E37" s="29" t="inlineStr"/>
       <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -12385,9 +12024,8 @@
       <c r="D38" s="29" t="inlineStr"/>
       <c r="E38" s="29" t="inlineStr"/>
       <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -12398,9 +12036,8 @@
       <c r="D39" s="29" t="inlineStr"/>
       <c r="E39" s="29" t="inlineStr"/>
       <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -12411,9 +12048,8 @@
       <c r="D40" s="29" t="inlineStr"/>
       <c r="E40" s="29" t="inlineStr"/>
       <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -12424,9 +12060,8 @@
       <c r="D41" s="29" t="inlineStr"/>
       <c r="E41" s="29" t="inlineStr"/>
       <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -12437,9 +12072,8 @@
       <c r="D42" s="29" t="inlineStr"/>
       <c r="E42" s="29" t="inlineStr"/>
       <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -12450,726 +12084,392 @@
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
       <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
